--- a/Visualization Results/Seaborn_robust_redispatch.xlsx
+++ b/Visualization Results/Seaborn_robust_redispatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\IDiNA\Visualization Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berne\Documents\GitHub\IDiNA\Visualization Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880C20B1-BBF5-42A9-95E1-48B912A56DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8206154-3A66-48FD-8AE5-BEC3EE9E4BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="585" windowWidth="21600" windowHeight="8355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="21">
   <si>
     <t>Sc 1</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Spring_Flex</t>
+  </si>
+  <si>
+    <t>Summer_Flex</t>
+  </si>
+  <si>
+    <t>Winter_Flex</t>
+  </si>
+  <si>
+    <t>Fall_flex</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>4.0199999999999996</v>
@@ -446,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>4.1500000000000004</v>
@@ -457,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>4.32</v>
@@ -468,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>4.46</v>
@@ -479,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>4.62</v>
@@ -490,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4.7699999999999996</v>
@@ -501,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -512,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>5.08</v>
@@ -523,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>5.2299999999999995</v>
@@ -534,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>5.45</v>
@@ -545,12 +557,11 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4.5199999999999996</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.08</v>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>4.66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.12</v>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4.83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.13999999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>4.96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.16</v>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>5.12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +613,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.19</v>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>5.28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.2</v>
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5.52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.25</v>
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5.59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.26</v>
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5.75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>5.9799999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>10.879999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>11.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>11.58</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1">
-        <v>11.99</v>
+        <v>0.13999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>12.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>12.73</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>13.200000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
-        <v>13.469999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1">
-        <v>14.01</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
-        <v>14.610000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10.050000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>0.13999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10.440000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0.13999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1">
-        <v>11.23</v>
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1">
-        <v>11.700000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0.27999999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1">
-        <v>12.120000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0.33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1">
-        <v>12.49</v>
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +855,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1">
-        <v>12.93</v>
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>0.42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +866,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1">
-        <v>13.51</v>
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0.44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +877,450 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10.879999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13.469999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>14.610000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>13.139999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>14.760000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>15.229999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>15.809999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>9.9699999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>11.360000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="1">
-        <v>13.969999999999999</v>
+      <c r="C72">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>12.280000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>12.520000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>12.790000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>13.100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>13.569999999999999</v>
       </c>
     </row>
   </sheetData>
